--- a/seronetTemplates/template/protocols.xlsx
+++ b/seronetTemplates/template/protocols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/seronetTemplates/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F33A6F2-28D2-C242-A45E-FB1D895D68C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DD9A6F-2348-5746-BD26-0E8F86EEC284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7680" windowWidth="18360" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7460" windowWidth="18360" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="protocols.txt" sheetId="1" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>protocols</t>
   </si>
   <si>
-    <t>Schema Version 3.33</t>
-  </si>
-  <si>
     <t>Please do not delete or edit this column</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>Subject Organism Treatment</t>
+  </si>
+  <si>
+    <t>Schema Version 3.34</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -642,32 +644,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2267,107 +2269,107 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/seronetTemplates/template/protocols.xlsx
+++ b/seronetTemplates/template/protocols.xlsx
@@ -10,7 +10,7 @@
     <sheet name="lookup" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="lookuptype1192">lookup!$A$1:$A$22</definedName>
+    <definedName name="lookuptype1712">lookup!$A$1:$A$22</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>protocols</t>
   </si>
   <si>
-    <t>Schema Version 3.35</t>
+    <t>Schema Version 3.36</t>
   </si>
   <si>
     <t>Please do not delete or edit this column</t>
@@ -2238,7 +2238,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" sqref="F4:F201" allowBlank="true" errorStyle="stop" promptTitle="Type" prompt="Please choose required value from the list" errorTitle="Type" error="Required value was not selected" showInputMessage="true">
-      <formula1>lookuptype1192</formula1>
+      <formula1>lookuptype1712</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
